--- a/medicine/Enfance/Le_Regard_des_princes_à_minuit/Le_Regard_des_princes_à_minuit.xlsx
+++ b/medicine/Enfance/Le_Regard_des_princes_à_minuit/Le_Regard_des_princes_à_minuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Regard_des_princes_%C3%A0_minuit</t>
+          <t>Le_Regard_des_princes_à_minuit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Regard des princes à minuit est un roman pour la jeunesse d'Erik L'Homme paru en mars 2014. Son chapitrage est assez particulier, puisque c'est un assemblage de courtes histoires indépendantes mais toutes liées par un même fil rouge : une quête de liberté[1]. L’œuvre dégage des idées générales notamment sur la jeunesse, la résistance, le numérique. 
+Le Regard des princes à minuit est un roman pour la jeunesse d'Erik L'Homme paru en mars 2014. Son chapitrage est assez particulier, puisque c'est un assemblage de courtes histoires indépendantes mais toutes liées par un même fil rouge : une quête de liberté. L’œuvre dégage des idées générales notamment sur la jeunesse, la résistance, le numérique. 
 </t>
         </is>
       </c>
